--- a/static/etfs/spy_monthly_returns.xlsx
+++ b/static/etfs/spy_monthly_returns.xlsx
@@ -549,43 +549,43 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.02242115349748874</v>
+        <v>-0.02242087851390073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209040056040557</v>
+        <v>0.02090362467014018</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01829303742065747</v>
+        <v>-0.01829285541357351</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01873513469719668</v>
+        <v>-0.01873494583447388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03222495035821127</v>
+        <v>0.03222436909397075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001514689831257909</v>
+        <v>0.00151505971014454</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03826169381680677</v>
+        <v>0.03826150583798515</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.009374474536172794</v>
+        <v>-0.009374741848176105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008025466147387084</v>
+        <v>0.008025558692905665</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.02365103265228752</v>
+        <v>-0.02365068315122554</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0439521883892986</v>
+        <v>0.04395236660071666</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.001913179258490771</v>
+        <v>-0.001913615118039447</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0482825350040359</v>
+        <v>0.04828235168164396</v>
       </c>
     </row>
     <row r="4">
@@ -593,43 +593,43 @@
         <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02401426941058493</v>
+        <v>0.02401418617075701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005725407733890187</v>
+        <v>0.005725238422806145</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01650356566064271</v>
+        <v>0.01650391227776593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01263171364128857</v>
+        <v>0.01263196526925769</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03012092415264589</v>
+        <v>-0.03012058925419425</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00260846980486984</v>
+        <v>0.002607873166111885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00447821709365015</v>
+        <v>0.004478387119019711</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02182259289643684</v>
+        <v>0.02182284438738247</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02700125862463643</v>
+        <v>0.0270014976223325</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03151697653839269</v>
+        <v>0.03151623457039476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01988500112490077</v>
+        <v>0.0198852382566812</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01337192243547625</v>
+        <v>0.01337161545755627</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1584526094190417</v>
+        <v>0.1584525496896343</v>
       </c>
     </row>
     <row r="5">
@@ -637,43 +637,43 @@
         <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01503958823226603</v>
+        <v>0.0150402709532782</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01961742988936255</v>
+        <v>-0.01961764421997969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01158936064911642</v>
+        <v>0.01158928216292399</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04429555060520207</v>
+        <v>0.04429531902233141</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03392047780692686</v>
+        <v>0.03392033664298877</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01462069687736156</v>
+        <v>-0.01462069992332671</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0313106983763447</v>
+        <v>-0.03131014119994446</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01283294882454977</v>
+        <v>0.01283236213708183</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0387140590886057</v>
+        <v>0.03871457024578717</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01356665886154906</v>
+        <v>0.01356617103492641</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03873265478502097</v>
+        <v>-0.03873232157383577</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0112607746536254</v>
+        <v>-0.01126041817049028</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05146160728721183</v>
+        <v>0.05146237373506679</v>
       </c>
     </row>
     <row r="6">
@@ -681,43 +681,43 @@
         <v>2008</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0604605170120377</v>
+        <v>-0.06046106091287728</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02584268916043309</v>
+        <v>-0.02584253832539696</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.008942306070884198</v>
+        <v>-0.008942462232810811</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04766245742996111</v>
+        <v>0.04766246120193673</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01511632887278269</v>
+        <v>0.01511640555362503</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08357603491033172</v>
+        <v>-0.08357581166804107</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.008985324062724787</v>
+        <v>-0.008986052678333301</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01545343342397998</v>
+        <v>0.01545352295798996</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.09417339707075023</v>
+        <v>-0.09417351575477195</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.165186817963778</v>
+        <v>-0.1651865499367586</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06960679889393984</v>
+        <v>-0.06960638692907539</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009796759193844595</v>
+        <v>0.009796756946704788</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3679496612810947</v>
+        <v>-0.3679498353138526</v>
       </c>
     </row>
     <row r="7">
@@ -725,43 +725,43 @@
         <v>2009</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08211464220436893</v>
+        <v>-0.08211479391486509</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1074490126532847</v>
+        <v>-0.1074493153451189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0833109558775722</v>
+        <v>0.08331153350332343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09934539351060034</v>
+        <v>0.09934587996516653</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0584542761653426</v>
+        <v>0.05845307128052823</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0006549146422417662</v>
+        <v>-0.0006546949757082476</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07460542083253863</v>
+        <v>0.07460521715436319</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03693956635902973</v>
+        <v>0.03693999112727453</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03545752857201823</v>
+        <v>0.03545723228935826</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01922554172878221</v>
+        <v>-0.01922535647189982</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06160701435000959</v>
+        <v>0.06160692309255777</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01910104228309284</v>
+        <v>0.01910132059802039</v>
       </c>
       <c r="N7" t="n">
-        <v>0.263517587642919</v>
+        <v>0.2635174142095136</v>
       </c>
     </row>
     <row r="8">
@@ -769,43 +769,43 @@
         <v>2010</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03634295391388809</v>
+        <v>-0.03634286075892934</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03119492507057897</v>
+        <v>0.03119463941651168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06087968296120927</v>
+        <v>0.06088014075015491</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01547013794842278</v>
+        <v>0.01546962107959171</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.07945471158604789</v>
+        <v>-0.07945405319714194</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05174069324534969</v>
+        <v>-0.05174166828039084</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06830068600416639</v>
+        <v>0.06830110361720032</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04498050838033851</v>
+        <v>-0.04498069251239012</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08955462118084401</v>
+        <v>0.08955483507465622</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03820164826987038</v>
+        <v>0.03820208423777771</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06685274472921443</v>
+        <v>0.06685222235076393</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1505613291223722</v>
+        <v>0.1505610459242195</v>
       </c>
     </row>
     <row r="9">
@@ -813,43 +813,43 @@
         <v>2011</v>
       </c>
       <c r="B9" t="n">
-        <v>0.023300380002375</v>
+        <v>0.02330030551758222</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03473700854081607</v>
+        <v>0.03473739822998034</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001204147757782881</v>
+        <v>0.0001196769224820482</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02896128349056926</v>
+        <v>0.02896174323179612</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01121467518919361</v>
+        <v>-0.01121410321159266</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01686992216263794</v>
+        <v>-0.01687027737991198</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02000437666037802</v>
+        <v>-0.02000430142929588</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05497537528623719</v>
+        <v>-0.0549756680559883</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06942095856066732</v>
+        <v>-0.06942081033910863</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1091468771764188</v>
+        <v>0.1091471339178938</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.004063416237168438</v>
+        <v>-0.004063801090717134</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01044825170631847</v>
+        <v>0.01044825332524724</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01894980593628692</v>
+        <v>0.01894980889721332</v>
       </c>
     </row>
     <row r="10">
@@ -857,43 +857,43 @@
         <v>2012</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04637455342068475</v>
+        <v>0.04637440718685726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04340553434869787</v>
+        <v>0.04340562034528261</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03216356486562488</v>
+        <v>0.03216371209439317</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.006675814140228775</v>
+        <v>-0.006675610480618599</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0600555605633154</v>
+        <v>-0.06005568932665528</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04058106597796263</v>
+        <v>0.0405812117210369</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01182933996206081</v>
+        <v>0.01182954839419903</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02505304499410088</v>
+        <v>0.02505275948071883</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0253507563925317</v>
+        <v>0.02535061964212715</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01819804961443827</v>
+        <v>-0.01819791911272095</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005659616676884971</v>
+        <v>0.005659415085567332</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008934277263314527</v>
+        <v>0.00893454522754622</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1599033036365183</v>
+        <v>0.1599036348471921</v>
       </c>
     </row>
     <row r="11">
@@ -901,43 +901,43 @@
         <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05119047044585034</v>
+        <v>0.051190199268073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01275843470626259</v>
+        <v>0.01275856207788251</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03797151138528143</v>
+        <v>0.03797169765923791</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01921210773271098</v>
+        <v>0.01921216410477156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02361002041317017</v>
+        <v>0.02360931056324378</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01334450440267954</v>
+        <v>-0.01334416649273984</v>
       </c>
       <c r="H11" t="n">
-        <v>0.051676833130748</v>
+        <v>0.05167672290902003</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02999239423040156</v>
+        <v>-0.02999240085973287</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03164642268307505</v>
+        <v>0.03164642989428401</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04630641169098459</v>
+        <v>0.04630719499225266</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02963796114572137</v>
+        <v>0.02963741774787199</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02592677412628652</v>
+        <v>0.02592626156116262</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3230780966513045</v>
+        <v>0.3230772607083288</v>
       </c>
     </row>
     <row r="12">
@@ -945,43 +945,43 @@
         <v>2014</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.03524831206152823</v>
+        <v>-0.0352482297495994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0455155264938536</v>
+        <v>0.0455160632165128</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008295733523695059</v>
+        <v>0.008295435509373617</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006951322565948992</v>
+        <v>0.006951520430173996</v>
       </c>
       <c r="F12" t="n">
         <v>0.02320616171847312</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02064500527234348</v>
+        <v>0.02064510063033542</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01343763389564601</v>
+        <v>-0.0134376326401795</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03946362464559061</v>
+        <v>0.0394634315049085</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01379614011643027</v>
+        <v>-0.01379595916067378</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02355073651999762</v>
+        <v>0.02355082672517939</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02747180245508729</v>
+        <v>0.02747152673044106</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.002536615429266198</v>
+        <v>-0.002536439967934179</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1346373867504951</v>
+        <v>0.1346380535514171</v>
       </c>
     </row>
     <row r="13">
@@ -989,43 +989,43 @@
         <v>2015</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02962865438623219</v>
+        <v>-0.02962873984242098</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05620410153564581</v>
+        <v>0.05620401078125825</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01570555204694946</v>
+        <v>-0.01570538154633994</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009833903493135177</v>
+        <v>0.009833989930747133</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01285615959587538</v>
+        <v>0.01285624381911354</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02031222781758968</v>
+        <v>-0.02031222261672283</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02258968522942517</v>
+        <v>0.02258906949763873</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0609505326528621</v>
+        <v>-0.06095004226039302</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02551569238624485</v>
+        <v>-0.02551605065015572</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08505935614281523</v>
+        <v>0.0850596512774755</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003655026392741512</v>
+        <v>0.00365519768063427</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01728239895198191</v>
+        <v>-0.01728265098447013</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01234299029782848</v>
+        <v>0.01234290114538816</v>
       </c>
     </row>
     <row r="14">
@@ -1033,19 +1033,19 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.04978657886534443</v>
+        <v>-0.04978631789018639</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0008257779684451849</v>
+        <v>-0.0008258692912849197</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06726572526530794</v>
+        <v>0.06726571293882233</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003941226041693113</v>
+        <v>0.003941311215493792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01701171363923226</v>
+        <v>0.01701145273460569</v>
       </c>
       <c r="G14" t="n">
         <v>0.003475911368338247</v>
@@ -1057,16 +1057,16 @@
         <v>0.001197533047966992</v>
       </c>
       <c r="J14" t="n">
-        <v>5.797612142810493e-05</v>
+        <v>5.805686811544142e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01733692355354932</v>
+        <v>-0.01733732586372949</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03683820927270554</v>
+        <v>0.03683879654601419</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02027174972974732</v>
+        <v>0.0202715071687789</v>
       </c>
       <c r="N14" t="n">
         <v>0.1199789793209378</v>
@@ -1080,40 +1080,40 @@
         <v>0.01789484321273593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03929138145286482</v>
+        <v>0.03929153406712804</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001250014133786781</v>
+        <v>0.001250013950229167</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009926397338509751</v>
+        <v>0.009926175890909938</v>
       </c>
       <c r="F15" t="n">
-        <v>0.014112741024769</v>
+        <v>0.01411281465934899</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006374708232497639</v>
+        <v>0.006374994630045983</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02055460611414661</v>
+        <v>0.0205540310979857</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002917486171220007</v>
+        <v>0.002917696123618363</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02014938979484149</v>
+        <v>0.02014946070556967</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02356423308704914</v>
+        <v>0.02356402867540974</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03056582690186582</v>
+        <v>0.03056603271180469</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01212807789750525</v>
+        <v>0.01212794870910439</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2170543942245116</v>
+        <v>0.2170542388792396</v>
       </c>
     </row>
     <row r="16">
@@ -1121,43 +1121,43 @@
         <v>2018</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05635883894236171</v>
+        <v>0.05635878231583313</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03636013337754118</v>
+        <v>-0.03636032121344779</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02741087536108311</v>
+        <v>-0.0274101960286689</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005168353588949293</v>
+        <v>0.005168094076033469</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02430925039893883</v>
+        <v>0.02430912057928691</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005750642941176665</v>
+        <v>0.005750580692824414</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03704652446017698</v>
+        <v>0.03704665357332937</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03191994032392653</v>
+        <v>0.03191982027066853</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005945656794622556</v>
+        <v>0.005945657486338574</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.06910436952040477</v>
+        <v>-0.0691041462082943</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0185492684310411</v>
+        <v>0.01854920400782412</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.08804854161041842</v>
+        <v>-0.08804841426569299</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.04569021018794783</v>
+        <v>-0.04568989691890146</v>
       </c>
     </row>
     <row r="17">
@@ -1165,43 +1165,43 @@
         <v>2019</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08006578968927047</v>
+        <v>0.08006550612294205</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03241561243156865</v>
+        <v>0.03241592402980653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01810078987118646</v>
+        <v>0.01810054563243946</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04085223627135037</v>
+        <v>0.0408521184556625</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06377116243543413</v>
+        <v>-0.06377116965379226</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06958666585985007</v>
+        <v>0.06958667427298981</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01511921773794089</v>
+        <v>0.01511944551859878</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01674325845636826</v>
+        <v>-0.01674359064868358</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01945777346628552</v>
+        <v>0.01945789112183327</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02210495889673836</v>
+        <v>0.02210496135230988</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03619789260891548</v>
+        <v>0.03619811391194538</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02905536550484289</v>
+        <v>0.02905546734499653</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3122385367104075</v>
+        <v>0.3122385409425978</v>
       </c>
     </row>
     <row r="18">
@@ -1209,43 +1209,43 @@
         <v>2020</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0004038316509222817</v>
+        <v>-0.0004038315686002436</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07916584965295914</v>
+        <v>-0.07916593547566098</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1248712028439076</v>
+        <v>-0.1248712443833095</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1269835184149011</v>
+        <v>0.1269839532506791</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04764548080497577</v>
+        <v>0.04764512257654663</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01773460466342502</v>
+        <v>0.01773428125078036</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05889195789136714</v>
+        <v>0.05889207559758503</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06979667452659211</v>
+        <v>0.06979678091421238</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.03744354404953865</v>
+        <v>-0.03744372996630629</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0249337909546995</v>
+        <v>-0.02493340947266365</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1087769737714606</v>
+        <v>0.108776655092055</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0370485734882029</v>
+        <v>0.03704866612492652</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1833165341948679</v>
+        <v>0.1833162929729739</v>
       </c>
     </row>
     <row r="19">
@@ -1253,43 +1253,43 @@
         <v>2021</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0101904976260474</v>
+        <v>-0.01019066989814665</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02780545588054339</v>
+        <v>0.02780554774283561</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04539930688585225</v>
+        <v>0.04539948006697636</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05291054400223283</v>
+        <v>0.05291045872528555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006566034142300614</v>
+        <v>0.006565957220626029</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02242725341457485</v>
+        <v>0.02242756080808239</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02441268156809984</v>
+        <v>0.02441252660684889</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02975961078938738</v>
+        <v>0.02975975454283919</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04660530159422505</v>
+        <v>-0.04660557510293817</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07016365211757392</v>
+        <v>0.07016365733195462</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.008034982448150485</v>
+        <v>-0.008034774671445755</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0462477993173438</v>
+        <v>0.04624772283457679</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2872874991354091</v>
+        <v>0.2872875852714591</v>
       </c>
     </row>
     <row r="20">
@@ -1297,13 +1297,13 @@
         <v>2022</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.05274109411978745</v>
+        <v>-0.05274142515485969</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.02951702211779361</v>
+        <v>-0.02951681854274824</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03759024656537169</v>
+        <v>0.03759032208827739</v>
       </c>
       <c r="E20" t="n">
         <v>-0.08776906773552628</v>
@@ -1318,22 +1318,22 @@
         <v>0.09208744737279573</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.04080196724550023</v>
+        <v>-0.04080204381585295</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.09244587857156084</v>
+        <v>-0.09244588595128211</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08127543936574599</v>
+        <v>0.08127553447356228</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05559165118965237</v>
+        <v>0.05559156984228619</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.05762823697609198</v>
+        <v>-0.05762824141711387</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1817535805222639</v>
+        <v>-0.1817537021862696</v>
       </c>
     </row>
     <row r="21">
@@ -1341,13 +1341,13 @@
         <v>2023</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06288737750687057</v>
+        <v>0.06288746442544002</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0251427113572974</v>
+        <v>-0.02514278829479122</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03707777822500136</v>
+        <v>0.0370778600730548</v>
       </c>
       <c r="E21" t="n">
         <v>0.01597494903951691</v>
@@ -1356,10 +1356,10 @@
         <v>0.004616158772851486</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06479981318392425</v>
+        <v>0.06479973862450694</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0327332564258318</v>
+        <v>0.03273332873988943</v>
       </c>
       <c r="I21" t="n">
         <v>-0.016252013059324</v>
@@ -1368,16 +1368,16 @@
         <v>-0.04743448893790059</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.02170869892733207</v>
+        <v>-0.02170862657247896</v>
       </c>
       <c r="L21" t="n">
-        <v>0.09134387742921213</v>
+        <v>0.0913437967129469</v>
       </c>
       <c r="M21" t="n">
         <v>0.04565540050443961</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2617578398342311</v>
+        <v>0.2617579430156107</v>
       </c>
     </row>
     <row r="22">
@@ -1388,13 +1388,13 @@
         <v>0.01592648090082216</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05218684013987196</v>
+        <v>0.0521867763448205</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03270189064171514</v>
+        <v>0.03270207451721863</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.04031957312907553</v>
+        <v>-0.04031968581657364</v>
       </c>
       <c r="F22" t="n">
         <v>0.05057963033917656</v>
@@ -1412,7 +1412,7 @@
         <v>0.02100467769845249</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.001028351306166742</v>
+        <v>0.005890973273291022</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2172580245841398</v>
+        <v>0.2256892982644885</v>
       </c>
     </row>
   </sheetData>

--- a/static/etfs/spy_monthly_returns.xlsx
+++ b/static/etfs/spy_monthly_returns.xlsx
@@ -549,43 +549,43 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.02242087851390073</v>
+        <v>-0.0224210680017185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02090362467014018</v>
+        <v>0.02090391576062212</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01829285541357351</v>
+        <v>-0.01829276693012927</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01873494583447388</v>
+        <v>-0.0187349475872215</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03222436909397075</v>
+        <v>0.03222475353108045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00151505971014454</v>
+        <v>0.001514689831257909</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03826150583798515</v>
+        <v>0.03826169381680677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.009374741848176105</v>
+        <v>-0.00937411923046827</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008025558692905665</v>
+        <v>0.008024656266134356</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.02365068315122554</v>
+        <v>-0.02365077631198786</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04395236660071666</v>
+        <v>0.04395265193773357</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.001913615118039447</v>
+        <v>-0.001913702390129446</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04828235168164396</v>
+        <v>0.04828254828094347</v>
       </c>
     </row>
     <row r="4">
@@ -593,43 +593,43 @@
         <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02401418617075701</v>
+        <v>0.02401445058881269</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005725238422806145</v>
+        <v>0.005725066667349843</v>
       </c>
       <c r="D4" t="n">
         <v>0.01650391227776593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01263196526925769</v>
+        <v>0.01263188174495311</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03012058925419425</v>
+        <v>-0.0301207567034063</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002607873166111885</v>
+        <v>0.002608214007407739</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004478387119019711</v>
+        <v>0.004478047448150058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02182284438738247</v>
+        <v>0.02182276547124351</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0270014976223325</v>
+        <v>0.02700167183036095</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03151623457039476</v>
+        <v>0.03151648104760807</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0198852382566812</v>
+        <v>0.01988562675429351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01337161545755627</v>
+        <v>0.01337099741093239</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1584525496896343</v>
+        <v>0.1584524761052102</v>
       </c>
     </row>
     <row r="5">
@@ -637,43 +637,43 @@
         <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0150402709532782</v>
+        <v>0.01504042418275886</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01961764421997969</v>
+        <v>-0.01961771858106554</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01158928216292399</v>
+        <v>0.0115889037966026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04429531902233141</v>
+        <v>0.04429578883074936</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03392033664298877</v>
+        <v>0.03392012124386112</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01462069992332671</v>
+        <v>-0.01462105019006865</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03131014119994446</v>
+        <v>-0.03130973600508991</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01283236213708183</v>
+        <v>0.01283287327123861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03871457024578717</v>
+        <v>0.03871426901879427</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01356617103492641</v>
+        <v>0.01356644671041729</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03873232157383577</v>
+        <v>-0.03873244481633142</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01126041817049028</v>
+        <v>-0.01126077065735054</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05146237373506679</v>
+        <v>0.05146238150377758</v>
       </c>
     </row>
     <row r="6">
@@ -681,43 +681,43 @@
         <v>2008</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06046106091287728</v>
+        <v>-0.0604611413785715</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02584253832539696</v>
+        <v>-0.02584262065366594</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.008942462232810811</v>
+        <v>-0.0089419944482928</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04766246120193673</v>
+        <v>0.04766213710066092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01511640555362503</v>
+        <v>0.01511610568145305</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08357581166804107</v>
+        <v>-0.08357570015510885</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.008986052678333301</v>
+        <v>-0.008985649594419609</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01545352295798996</v>
+        <v>0.01545360362855375</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.09417351575477195</v>
+        <v>-0.09417358124690955</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1651865499367586</v>
+        <v>-0.1651864461434719</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06960638692907539</v>
+        <v>-0.06960669218905291</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009796756946704788</v>
+        <v>0.009796414006470355</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3679498353138526</v>
+        <v>-0.3679500317111419</v>
       </c>
     </row>
     <row r="7">
@@ -725,43 +725,43 @@
         <v>2009</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08211479391486509</v>
+        <v>-0.08211426334319583</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1074493153451189</v>
+        <v>-0.1074492401819065</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08331153350332343</v>
+        <v>0.08331033780995689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09934587996516653</v>
+        <v>0.09934686475117172</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05845307128052823</v>
+        <v>0.05845353690384947</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0006546949757082476</v>
+        <v>-0.0006553545513213743</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07460521715436319</v>
+        <v>0.07460622401940209</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03693999112727453</v>
+        <v>0.03693904296499562</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03545723228935826</v>
+        <v>0.0354576343365598</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01922535647189982</v>
+        <v>-0.01922563894148777</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06160692309255777</v>
+        <v>0.06160702633240867</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01910132059802039</v>
+        <v>0.01910086257231991</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2635174142095136</v>
+        <v>0.2635174203504906</v>
       </c>
     </row>
     <row r="8">
@@ -769,43 +769,43 @@
         <v>2010</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03634286075892934</v>
+        <v>-0.03634215798731699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03119463941651168</v>
+        <v>0.03119435085279987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06088014075015491</v>
+        <v>0.0608800502937572</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01546962107959171</v>
+        <v>0.01546987819491719</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.07945405319714194</v>
+        <v>-0.0794543757201176</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05174166828039084</v>
+        <v>-0.05174131286422246</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06830110361720032</v>
+        <v>0.06830089809559414</v>
       </c>
       <c r="I8" t="n">
         <v>-0.04498069251239012</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08955483507465622</v>
+        <v>0.08955464651096845</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03820208423777771</v>
+        <v>0.03820226391413839</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06685222235076393</v>
+        <v>0.06685238904749147</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1505610459242195</v>
+        <v>0.1505617428099104</v>
       </c>
     </row>
     <row r="9">
@@ -813,43 +813,43 @@
         <v>2011</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02330030551758222</v>
+        <v>0.02329991124944542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03473739822998034</v>
+        <v>0.03473763522608553</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001196769224820482</v>
+        <v>0.0001200458402457194</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02896174323179612</v>
+        <v>0.02896151122448809</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01121410321159266</v>
+        <v>-0.0112146034909858</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01687027737991198</v>
+        <v>-0.01686977591658756</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02000430142929588</v>
+        <v>-0.02000437223407148</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0549756680559883</v>
+        <v>-0.05497604022439573</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06942081033910863</v>
+        <v>-0.06942027497749992</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1091471339178938</v>
+        <v>0.1091467635734262</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.004063801090717134</v>
+        <v>-0.004063569927777011</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01044825332524724</v>
+        <v>0.01044825170631847</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01894980889721332</v>
+        <v>0.01894980593628692</v>
       </c>
     </row>
     <row r="10">
@@ -857,43 +857,43 @@
         <v>2012</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04637440718685726</v>
+        <v>0.04637455342068475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04340562034528261</v>
+        <v>0.04340575417215775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03216371209439317</v>
+        <v>0.03216355808944393</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.006675610480618599</v>
+        <v>-0.006675608663839983</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06005568932665528</v>
+        <v>-0.06005587835806125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0405812117210369</v>
+        <v>0.04058099014922623</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01182954839419903</v>
+        <v>0.01182983016967354</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02505275948071883</v>
+        <v>0.02505289443468195</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02535061964212715</v>
+        <v>0.02535068031484822</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01819791911272095</v>
+        <v>-0.01819909842119993</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005659415085567332</v>
+        <v>0.005660224867711561</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00893454522754622</v>
+        <v>0.008934345744014305</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1599036348471921</v>
+        <v>0.1599031502914019</v>
       </c>
     </row>
     <row r="11">
@@ -901,43 +901,43 @@
         <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>0.051190199268073</v>
+        <v>0.05119041111094003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01275856207788251</v>
+        <v>0.01275868864722329</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03797169765923791</v>
+        <v>0.03797107438837566</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01921216410477156</v>
+        <v>0.01921295210676077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02360931056324378</v>
+        <v>0.02360989194289376</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01334416649273984</v>
+        <v>-0.0133451878735531</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05167672290902003</v>
+        <v>0.05167719983379393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02999240085973287</v>
+        <v>-0.02999239423040156</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03164642989428401</v>
+        <v>0.03164642268307505</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04630719499225266</v>
+        <v>0.04630663256899226</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02963741774787199</v>
+        <v>0.02963763823523324</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02592626156116262</v>
+        <v>0.02592646924501296</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3230772607083288</v>
+        <v>0.3230777427485658</v>
       </c>
     </row>
     <row r="12">
@@ -945,43 +945,43 @@
         <v>2014</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0352482297495994</v>
+        <v>-0.03524812630511143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0455160632165128</v>
+        <v>0.04551574306854755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008295435509373617</v>
+        <v>0.008295535395334452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006951520430173996</v>
+        <v>0.006951225682721107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02320616171847312</v>
+        <v>0.02320675393669358</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02064510063033542</v>
+        <v>0.02064490400838159</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0134376326401795</v>
+        <v>-0.01343744452645446</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0394634315049085</v>
+        <v>0.03946351499482703</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01379595916067378</v>
+        <v>-0.01379631855829011</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02355082672517939</v>
+        <v>0.02355091910599749</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02747152673044106</v>
+        <v>0.02747188527189071</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.002536439967934179</v>
+        <v>-0.002536790222056773</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1346380535514171</v>
+        <v>0.13463804009806</v>
       </c>
     </row>
     <row r="13">
@@ -989,43 +989,43 @@
         <v>2015</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02962873984242098</v>
+        <v>-0.02962900142947822</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05620401078125825</v>
+        <v>0.05620429324599363</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01570538154633994</v>
+        <v>-0.01570563797199698</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009833989930747133</v>
+        <v>0.009834166239861553</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01285624381911354</v>
+        <v>0.01285598448122038</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02031222261672283</v>
+        <v>-0.02031214246886714</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02258906949763873</v>
+        <v>0.02258942190660629</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06095004226039302</v>
+        <v>-0.06095011706906395</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02551605065015572</v>
+        <v>-0.02551595761184788</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0850596512774755</v>
+        <v>0.08505982163737902</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00365519768063427</v>
+        <v>0.003654853223284293</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01728265098447013</v>
+        <v>-0.01728256549619833</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01234290114538816</v>
+        <v>0.01234290005840522</v>
       </c>
     </row>
     <row r="14">
@@ -1033,43 +1033,43 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.04978631789018639</v>
+        <v>-0.04978640055090111</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0008258692912849197</v>
+        <v>-0.0008259608409236785</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06726571293882233</v>
+        <v>0.06726590235270002</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003941311215493792</v>
+        <v>0.00394139672763627</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01701145273460569</v>
+        <v>0.01701127879826214</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003475911368338247</v>
+        <v>0.003475827285235766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0364713241248884</v>
+        <v>0.03647149476460099</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001197533047966992</v>
+        <v>0.001197452107776886</v>
       </c>
       <c r="J14" t="n">
-        <v>5.805686811544142e-05</v>
+        <v>5.7814628053654e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01733732586372949</v>
+        <v>-0.01733692635318573</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03683879654601419</v>
+        <v>0.03683846182604444</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0202715071687789</v>
+        <v>0.02027182737045785</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1199789793209378</v>
+        <v>0.1199790558754725</v>
       </c>
     </row>
     <row r="15">
@@ -1077,43 +1077,43 @@
         <v>2017</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01789484321273593</v>
+        <v>0.01789484043285716</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03929153406712804</v>
+        <v>0.03929137545644057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001250013950229167</v>
+        <v>0.001249793683453682</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009926175890909938</v>
+        <v>0.009926471397028847</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01411281465934899</v>
+        <v>0.014112741024769</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006374994630045983</v>
+        <v>0.006374923030658897</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0205540310979857</v>
+        <v>0.02055431714367106</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002917696123618363</v>
+        <v>0.002917556087542739</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02014946070556967</v>
+        <v>0.02014938979484149</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02356402867540974</v>
+        <v>0.02356382426377057</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03056603271180469</v>
+        <v>0.03056603881601894</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01212794870910439</v>
+        <v>0.01212827403035521</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2170542388792396</v>
+        <v>0.2170542051608961</v>
       </c>
     </row>
     <row r="16">
@@ -1121,43 +1121,43 @@
         <v>2018</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05635878231583313</v>
+        <v>0.05635903040291468</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03636032121344779</v>
+        <v>-0.03636061010934255</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0274101960286689</v>
+        <v>-0.02741057047937123</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005168094076033469</v>
+        <v>0.005168353588949293</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02430912057928691</v>
+        <v>0.02430912213823921</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005750580692824414</v>
+        <v>0.005750956703227228</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03704665357332937</v>
+        <v>0.03704651754169452</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03191982027066853</v>
+        <v>0.03191975449593376</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005945657486338574</v>
+        <v>0.005945773134324206</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0691041462082943</v>
+        <v>-0.06910465065849392</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01854920400782412</v>
+        <v>0.01854927188781152</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.08804841426569299</v>
+        <v>-0.08804831377018563</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.04568989691890146</v>
+        <v>-0.04569014636776347</v>
       </c>
     </row>
     <row r="17">
@@ -1165,43 +1165,43 @@
         <v>2019</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08006550612294205</v>
+        <v>0.08006558370757011</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03241592402980653</v>
+        <v>0.03241574028225913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01810054563243946</v>
+        <v>0.01810066992294157</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0408521184556625</v>
+        <v>0.04085212326868359</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06377116965379226</v>
+        <v>-0.06377083729739697</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06958667427298981</v>
+        <v>0.06958653654513225</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01511944551859878</v>
+        <v>0.01511933077375049</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01674359064868358</v>
+        <v>-0.01674347929644537</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01945789112183327</v>
+        <v>0.01945811541507925</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02210496135230988</v>
+        <v>0.02210462072498842</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03619811391194538</v>
+        <v>0.03619800522750416</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02905546734499653</v>
+        <v>0.02905557528027303</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3122385409425978</v>
+        <v>0.3122387164564626</v>
       </c>
     </row>
     <row r="18">
@@ -1209,43 +1209,43 @@
         <v>2020</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0004038315686002436</v>
+        <v>-0.0004040354209822183</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07916593547566098</v>
+        <v>-0.07916554375079088</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1248712443833095</v>
+        <v>-0.1248712720952452</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1269839532506791</v>
+        <v>0.1269834862793946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04764512257654663</v>
+        <v>0.04764535782914936</v>
       </c>
       <c r="G18" t="n">
         <v>0.01773428125078036</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05889207559758503</v>
+        <v>0.05889228620397557</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06979678091421238</v>
+        <v>0.06979656813899293</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.03744372996630629</v>
+        <v>-0.03744354404953865</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.02493340947266365</v>
+        <v>-0.02493369438022508</v>
       </c>
       <c r="L18" t="n">
-        <v>0.108776655092055</v>
+        <v>0.1087769629977531</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03704866612492652</v>
+        <v>0.03704830219697719</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1833162929729739</v>
+        <v>0.1833160891205918</v>
       </c>
     </row>
     <row r="19">
@@ -1253,43 +1253,43 @@
         <v>2021</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01019066989814665</v>
+        <v>-0.01019032710945711</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02780554774283561</v>
+        <v>0.02780545588054339</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04539948006697636</v>
+        <v>0.04539939155445882</v>
       </c>
       <c r="E19" t="n">
         <v>0.05291045872528555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006565957220626029</v>
+        <v>0.006566034142300614</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02242756080808239</v>
+        <v>0.02242748267427164</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02441252660684889</v>
+        <v>0.02441237711967204</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02975975454283919</v>
+        <v>0.02975990481033097</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04660557510293817</v>
+        <v>-0.04660550424913779</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07016365733195462</v>
+        <v>0.07016357780017368</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.008034774671445755</v>
+        <v>-0.008034913561241308</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04624772283457679</v>
+        <v>0.04624786932474501</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2872875852714591</v>
+        <v>0.2872878070352318</v>
       </c>
     </row>
     <row r="20">
@@ -1297,13 +1297,13 @@
         <v>2022</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.05274142515485969</v>
+        <v>-0.05274122441638296</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.02951681854274824</v>
+        <v>-0.02951709484120846</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03759032208827739</v>
+        <v>0.0375903976111942</v>
       </c>
       <c r="E20" t="n">
         <v>-0.08776906773552628</v>
@@ -1312,10 +1312,10 @@
         <v>0.002257300584096011</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08246040820410239</v>
+        <v>-0.08246048493015856</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09208744737279573</v>
+        <v>0.09208753869481678</v>
       </c>
       <c r="I20" t="n">
         <v>-0.04080204381585295</v>
@@ -1330,10 +1330,10 @@
         <v>0.05559156984228619</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.05762824141711387</v>
+        <v>-0.05762831848041039</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1817537021862696</v>
+        <v>-0.1817537690990951</v>
       </c>
     </row>
     <row r="21">
@@ -1341,7 +1341,7 @@
         <v>2023</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06288746442544002</v>
+        <v>0.06288755134402368</v>
       </c>
       <c r="C21" t="n">
         <v>-0.02514278829479122</v>
@@ -1350,19 +1350,19 @@
         <v>0.0370778600730548</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01597494903951691</v>
+        <v>0.0159748729393403</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004616158772851486</v>
+        <v>0.004616159118618235</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06479973862450694</v>
+        <v>0.06479996713420655</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03273332873988943</v>
+        <v>0.0327332541337837</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.016252013059324</v>
+        <v>-0.0162520797599951</v>
       </c>
       <c r="J21" t="n">
         <v>-0.04743448893790059</v>
@@ -1377,7 +1377,7 @@
         <v>0.04565540050443961</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2617579430156107</v>
+        <v>0.2617580461970073</v>
       </c>
     </row>
     <row r="22">
@@ -1388,13 +1388,13 @@
         <v>0.01592648090082216</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0521867763448205</v>
+        <v>0.05218684013987196</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03270207451721863</v>
+        <v>0.03270189064171514</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.04031968581657364</v>
+        <v>-0.04031957312907553</v>
       </c>
       <c r="F22" t="n">
         <v>0.05057963033917656</v>
@@ -1412,7 +1412,7 @@
         <v>0.02100467769845249</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005890973273291022</v>
+        <v>0.01049222571944175</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2256892982644885</v>
+        <v>0.231295975361419</v>
       </c>
     </row>
   </sheetData>

--- a/static/etfs/spy_monthly_returns.xlsx
+++ b/static/etfs/spy_monthly_returns.xlsx
@@ -549,43 +549,43 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0224210680017185</v>
+        <v>-0.02242097223022987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02090391576062212</v>
+        <v>0.02090362859013295</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01829276693012927</v>
+        <v>-0.01829249139930533</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0187349475872215</v>
+        <v>-0.0187354101037861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03222475353108045</v>
+        <v>0.03222485501699324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001514689831257909</v>
+        <v>0.001514874700714985</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03826169381680677</v>
+        <v>0.03826141361291802</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00937411923046827</v>
+        <v>-0.009374298548691429</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008024656266134356</v>
+        <v>0.008025286813372556</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.02365077631198786</v>
+        <v>-0.02365094790682154</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04395265193773357</v>
+        <v>0.04395255682537735</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.001913702390129446</v>
+        <v>-0.001913615118039447</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04828254828094347</v>
+        <v>0.04828244776846669</v>
       </c>
     </row>
     <row r="4">
@@ -593,43 +593,43 @@
         <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02401445058881269</v>
+        <v>0.02401383641309529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005725066667349843</v>
+        <v>0.005725923489495965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01650391227776593</v>
+        <v>0.01650390667285562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01263188174495311</v>
+        <v>0.01263162695184761</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0301207567034063</v>
+        <v>-0.03012067173658428</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002608214007407739</v>
+        <v>0.002608128519810515</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004478047448150058</v>
+        <v>0.004478301536538609</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02182276547124351</v>
+        <v>0.02182216698796413</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02700167183036095</v>
+        <v>0.02700159588354434</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03151648104760807</v>
+        <v>0.0315168130654917</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01988562675429351</v>
+        <v>0.01988508068589634</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01337099741093239</v>
+        <v>0.01337146350276419</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1584524761052102</v>
+        <v>0.1584522873713878</v>
       </c>
     </row>
     <row r="5">
@@ -637,43 +637,43 @@
         <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01504042418275886</v>
+        <v>0.01504019887946129</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01961771858106554</v>
+        <v>-0.01961750133292284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0115889037966026</v>
+        <v>0.01158913222284208</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04429578883074936</v>
+        <v>0.04429533230740534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03392012124386112</v>
+        <v>0.03392063358379227</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01462105019006865</v>
+        <v>-0.01462076936746737</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03130973600508991</v>
+        <v>-0.03131077767730461</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01283287327123861</v>
+        <v>0.0128336082649132</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03871426901879427</v>
+        <v>0.03871383247331717</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01356644671041729</v>
+        <v>0.01356672707679674</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03873244481633142</v>
+        <v>-0.03873230836073016</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01126077065735054</v>
+        <v>-0.01126091101264093</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05146238150377758</v>
+        <v>0.0514624608676455</v>
       </c>
     </row>
     <row r="6">
@@ -681,43 +681,43 @@
         <v>2008</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0604611413785715</v>
+        <v>-0.06046121316383879</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02584262065366594</v>
+        <v>-0.02584224060419693</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0089419944482928</v>
+        <v>-0.008942619096097282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04766213710066092</v>
+        <v>0.04766254788524593</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01511610568145305</v>
+        <v>0.01511678439038433</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08357570015510885</v>
+        <v>-0.08357630768969748</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.008985649594419609</v>
+        <v>-0.008985892466321865</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01545360362855375</v>
+        <v>0.01545401584493633</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.09417358124690955</v>
+        <v>-0.09417355845036512</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1651864461434719</v>
+        <v>-0.1651866692356952</v>
       </c>
       <c r="L6" t="n">
         <v>-0.06960669218905291</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009796414006470355</v>
+        <v>0.009796643382339765</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3679500317111419</v>
+        <v>-0.3679498881406073</v>
       </c>
     </row>
     <row r="7">
@@ -725,43 +725,43 @@
         <v>2009</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08211426334319583</v>
+        <v>-0.08211458541672989</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1074492401819065</v>
+        <v>-0.1074488204019532</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08331033780995689</v>
+        <v>0.08331051688373381</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09934686475117172</v>
+        <v>0.09934604607545738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05845353690384947</v>
+        <v>0.05845296848323045</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0006553545513213743</v>
+        <v>-0.0006545852143584607</v>
       </c>
       <c r="H7" t="n">
         <v>0.07460622401940209</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03693904296499562</v>
+        <v>0.03693945260115372</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0354576343365598</v>
+        <v>0.03545742280751862</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01922563894148777</v>
+        <v>-0.01922563527404431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06160702633240867</v>
+        <v>0.06160681985272665</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01910086257231991</v>
+        <v>0.01910104578260019</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2635174203504906</v>
+        <v>0.2635173604923629</v>
       </c>
     </row>
     <row r="8">
@@ -769,43 +769,43 @@
         <v>2010</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03634215798731699</v>
+        <v>-0.03634260089476493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03119435085279987</v>
+        <v>0.03119482597281653</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0608800502937572</v>
+        <v>0.06087976791063499</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01546987819491719</v>
+        <v>0.0154701353102864</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0794543757201176</v>
+        <v>-0.07945461427651634</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05174131286422246</v>
+        <v>-0.05174122636991763</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06830089809559414</v>
+        <v>0.06830118666817753</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04498069251239012</v>
+        <v>-0.04498068036207625</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08955464651096845</v>
+        <v>0.08955452689902677</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03820226391413839</v>
+        <v>0.03820199770533272</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06685238904749147</v>
+        <v>0.06685247796790006</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1505617428099104</v>
+        <v>0.1505615359661048</v>
       </c>
     </row>
     <row r="9">
@@ -813,40 +813,40 @@
         <v>2011</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02329991124944542</v>
+        <v>0.0233003018768867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03473763522608553</v>
+        <v>0.03473693484627849</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001200458402457194</v>
+        <v>0.0001200458756751566</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02896151122448809</v>
+        <v>0.02896159354571548</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0112146034909858</v>
+        <v>-0.01121453420496388</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01686977591658756</v>
+        <v>-0.0168697058516849</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02000437223407148</v>
+        <v>-0.02000437370950681</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05497604022439573</v>
+        <v>-0.05497589383957024</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06942027497749992</v>
+        <v>-0.06942058800668205</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1091467635734262</v>
+        <v>0.1091471339178938</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.004063569927777011</v>
+        <v>-0.004063569614236706</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01044825170631847</v>
+        <v>0.01044817342320803</v>
       </c>
       <c r="N9" t="n">
         <v>0.01894980593628692</v>
@@ -857,43 +857,43 @@
         <v>2012</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04637455342068475</v>
+        <v>0.0463750134560339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04340575417215775</v>
+        <v>0.04340514889332492</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03216355808944393</v>
+        <v>0.03216398396453291</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.006675608663839983</v>
+        <v>-0.006675878998672613</v>
       </c>
       <c r="F10" t="n">
         <v>-0.06005587835806125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04058099014922623</v>
+        <v>0.04058084440616261</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01182983016967354</v>
+        <v>0.01182983182655173</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02505289443468195</v>
+        <v>0.02505241342614251</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02535068031484822</v>
+        <v>0.02535096579737695</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01819909842119993</v>
+        <v>-0.01819772156263177</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005660224867711561</v>
+        <v>0.005659413946826897</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008934345744014305</v>
+        <v>0.008934343360576857</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1599031502914019</v>
+        <v>0.1599034569816344</v>
       </c>
     </row>
     <row r="11">
@@ -901,43 +901,43 @@
         <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05119041111094003</v>
+        <v>0.05118993485793544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01275868864722329</v>
+        <v>0.01275938277299393</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03797107438837566</v>
+        <v>0.03797099343570953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01921295210676077</v>
+        <v>0.0192121664033098</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02360989194289376</v>
+        <v>0.02360966548816523</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0133451878735531</v>
+        <v>-0.01334427810923267</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05167719983379393</v>
+        <v>0.05167625199069525</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02999239423040156</v>
+        <v>-0.02999196873609211</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03164642268307505</v>
+        <v>0.03164654022269553</v>
       </c>
       <c r="K11" t="n">
         <v>0.04630663256899226</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02963763823523324</v>
+        <v>0.02963784933779245</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02592646924501296</v>
+        <v>0.02592646392941189</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3230777427485658</v>
+        <v>0.3230776573235363</v>
       </c>
     </row>
     <row r="12">
@@ -945,43 +945,43 @@
         <v>2014</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.03524812630511143</v>
+        <v>-0.03524811926095806</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04551574306854755</v>
+        <v>0.04551542292071487</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008295535395334452</v>
+        <v>0.008295833409695419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006951225682721107</v>
+        <v>0.006951322565948992</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02320675393669358</v>
+        <v>0.02320645443112812</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02064490400838159</v>
+        <v>0.02064452257652261</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01343744452645446</v>
+        <v>-0.01343735611908703</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03946351499482703</v>
+        <v>0.03946362090831812</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01379631855829011</v>
+        <v>-0.01379613885951469</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02355091910599749</v>
+        <v>0.02355073434436128</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02747188527189071</v>
+        <v>0.02747216099657668</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.002536790222056773</v>
+        <v>-0.002537053525311528</v>
       </c>
       <c r="N12" t="n">
-        <v>0.13463804009806</v>
+        <v>0.1346376135018319</v>
       </c>
     </row>
     <row r="13">
@@ -989,43 +989,43 @@
         <v>2015</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02962900142947822</v>
+        <v>-0.02962918277897597</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05620429324599363</v>
+        <v>0.05620449515802384</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01570563797199698</v>
+        <v>-0.01570521104570111</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009834166239861553</v>
+        <v>0.009833814480147529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01285598448122038</v>
+        <v>0.01285589914659679</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02031214246886714</v>
+        <v>-0.02031163384367607</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02258942190660629</v>
+        <v>0.02258897844354713</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06095011706906395</v>
+        <v>-0.06095029264925655</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02551595761184788</v>
+        <v>-0.02551569238624485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08505982163737902</v>
+        <v>0.08505963543955342</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003654853223284293</v>
+        <v>0.00365493965119601</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01728256549619833</v>
+        <v>-0.0172823959970968</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01234290005840522</v>
+        <v>0.01234316642874345</v>
       </c>
     </row>
     <row r="14">
@@ -1033,43 +1033,43 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.04978640055090111</v>
+        <v>-0.04978639621989733</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0008259608409236785</v>
+        <v>-0.0008260523149377086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06726590235270002</v>
+        <v>0.06726581072738225</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00394139672763627</v>
+        <v>0.003941311215493792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01701127879826214</v>
+        <v>0.01701162376156184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003475827285235766</v>
+        <v>0.003475658534542792</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03647149476460099</v>
+        <v>0.03647115959717562</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001197452107776886</v>
+        <v>0.001197775868615913</v>
       </c>
       <c r="J14" t="n">
-        <v>5.7814628053654e-05</v>
+        <v>5.789537474099049e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01733692635318573</v>
+        <v>-0.01733684421135484</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03683846182604444</v>
+        <v>0.03683820927270554</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02027182737045785</v>
+        <v>0.02027206671853121</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1199790558754725</v>
+        <v>0.1199791324299944</v>
       </c>
     </row>
     <row r="15">
@@ -1077,22 +1077,22 @@
         <v>2017</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01789484043285716</v>
+        <v>0.01789437161730922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03929137545644057</v>
+        <v>0.03929184529215068</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001249793683453682</v>
+        <v>0.001249720077680649</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009926471397028847</v>
+        <v>0.009926250677299908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.014112741024769</v>
+        <v>0.01411303351366233</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006374923030658897</v>
+        <v>0.006374778919024049</v>
       </c>
       <c r="H15" t="n">
         <v>0.02055431714367106</v>
@@ -1101,19 +1101,19 @@
         <v>0.002917556087542739</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02014938979484149</v>
+        <v>0.02014932028470517</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02356382426377057</v>
+        <v>0.02356409841821483</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03056603881601894</v>
+        <v>0.03056596614321561</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01212827403035521</v>
+        <v>0.01212762652147603</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2170542051608961</v>
+        <v>0.2170533947164439</v>
       </c>
     </row>
     <row r="16">
@@ -1121,43 +1121,43 @@
         <v>2018</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05635903040291468</v>
+        <v>0.05635976120006525</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03636061010934255</v>
+        <v>-0.03636066393436777</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02741057047937123</v>
+        <v>-0.02741044165265649</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005168353588949293</v>
+        <v>0.005168094409178092</v>
       </c>
       <c r="F16" t="n">
         <v>0.02430912213823921</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005750956703227228</v>
+        <v>0.005751019311621919</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03704651754169452</v>
+        <v>0.03704626623396834</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03191975449593376</v>
+        <v>0.03191982027066853</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005945773134324206</v>
+        <v>0.005945657486338574</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.06910465065849392</v>
+        <v>-0.06910420403433803</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01854927188781152</v>
+        <v>0.01854920516007685</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.08804831377018563</v>
+        <v>-0.08804854161041842</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.04569014636776347</v>
+        <v>-0.0456897229538854</v>
       </c>
     </row>
     <row r="17">
@@ -1165,43 +1165,43 @@
         <v>2019</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08006558370757011</v>
+        <v>0.08006578968927047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03241574028225913</v>
+        <v>0.0324159839408904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01810066992294157</v>
+        <v>0.01809994372030377</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04085212326868359</v>
+        <v>0.0408526089707264</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06377083729739697</v>
+        <v>-0.06377116965379226</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06958653654513225</v>
+        <v>0.0695867951745992</v>
       </c>
       <c r="H17" t="n">
         <v>0.01511933077375049</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01674347929644537</v>
+        <v>-0.01674359064868358</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01945811541507925</v>
+        <v>0.01945800437025658</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02210462072498842</v>
+        <v>0.02210462563605575</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03619800522750416</v>
+        <v>0.03619833914922022</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02905557528027303</v>
+        <v>0.02905546734499653</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3122387164564626</v>
+        <v>0.3122388042134132</v>
       </c>
     </row>
     <row r="18">
@@ -1209,31 +1209,31 @@
         <v>2020</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0004040354209822183</v>
+        <v>-0.0004039334947911755</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07916554375079088</v>
+        <v>-0.07916594354800388</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1248712720952452</v>
+        <v>-0.124870981376471</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1269834862793946</v>
+        <v>0.126983612813558</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04764535782914936</v>
+        <v>0.04764524020283489</v>
       </c>
       <c r="G18" t="n">
         <v>0.01773428125078036</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05889228620397557</v>
+        <v>0.05889207559758503</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06979656813899293</v>
+        <v>0.06979697980737187</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.03744354404953865</v>
+        <v>-0.03744372300489041</v>
       </c>
       <c r="K18" t="n">
         <v>-0.02493369438022508</v>
@@ -1242,10 +1242,10 @@
         <v>0.1087769629977531</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03704830219697719</v>
+        <v>0.03704839152423656</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1833160891205918</v>
+        <v>0.1833161910467829</v>
       </c>
     </row>
     <row r="19">
@@ -1253,43 +1253,43 @@
         <v>2021</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01019032710945711</v>
+        <v>-0.0101904985038167</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02780545588054339</v>
+        <v>0.02780554532311719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04539939155445882</v>
+        <v>0.04539930688585225</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05291045872528555</v>
+        <v>0.05291038201894827</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006566034142300614</v>
+        <v>0.006566035152441474</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02242748267427164</v>
+        <v>0.02242756252199452</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02441237711967204</v>
+        <v>0.0244123789443409</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02975990481033097</v>
+        <v>0.02975983401927729</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04660550424913779</v>
+        <v>-0.04660536914587221</v>
       </c>
       <c r="K19" t="n">
         <v>0.07016357780017368</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.008034913561241308</v>
+        <v>-0.008034844116343587</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04624786932474501</v>
+        <v>0.0462477960796559</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2872878070352318</v>
+        <v>0.2872876961533357</v>
       </c>
     </row>
     <row r="20">
@@ -1297,10 +1297,10 @@
         <v>2022</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.05274122441638296</v>
+        <v>-0.05274135824203408</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.02951709484120846</v>
+        <v>-0.02951695773450813</v>
       </c>
       <c r="D20" t="n">
         <v>0.0375903976111942</v>
@@ -1312,19 +1312,19 @@
         <v>0.002257300584096011</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08246048493015856</v>
+        <v>-0.08246056165621474</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09208753869481678</v>
+        <v>0.09208754639531813</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.04080204381585295</v>
+        <v>-0.04080197036972155</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.09244588595128211</v>
+        <v>-0.09244580612380526</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08127553447356228</v>
+        <v>0.08127543936574599</v>
       </c>
       <c r="L20" t="n">
         <v>0.05559156984228619</v>
@@ -1333,7 +1333,7 @@
         <v>-0.05762831848041039</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1817537690990951</v>
+        <v>-0.181753769099095</v>
       </c>
     </row>
     <row r="21">
@@ -1341,28 +1341,28 @@
         <v>2023</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06288755134402368</v>
+        <v>0.06288738779221492</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.02514278829479122</v>
+        <v>-0.02514263828862673</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0370778600730548</v>
+        <v>0.0370777811512466</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0159748729393403</v>
+        <v>0.01597502635539572</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004616159118618235</v>
+        <v>0.00461608386925616</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06479996713420655</v>
+        <v>0.06479989257478369</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0327332541337837</v>
+        <v>0.0327332564258318</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0162520797599951</v>
+        <v>-0.016252013059324</v>
       </c>
       <c r="J21" t="n">
         <v>-0.04743448893790059</v>
@@ -1374,10 +1374,10 @@
         <v>0.0913437967129469</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04565540050443961</v>
+        <v>0.0456553327343816</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2617580461970073</v>
+        <v>0.261757964421103</v>
       </c>
     </row>
     <row r="22">
@@ -1385,16 +1385,16 @@
         <v>2024</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01592648090082216</v>
+        <v>0.01592654674412119</v>
       </c>
       <c r="C22" t="n">
         <v>0.05218684013987196</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03270189064171514</v>
+        <v>0.03270201190354638</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.04031957312907553</v>
+        <v>-0.04031968581657364</v>
       </c>
       <c r="F22" t="n">
         <v>0.05057963033917656</v>
@@ -1412,7 +1412,7 @@
         <v>0.02100467769845249</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01049222571944175</v>
+        <v>0.007372386357979099</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.231295975361419</v>
+        <v>0.2274944960805165</v>
       </c>
     </row>
   </sheetData>
